--- a/Corso Excel/Lezione 04 Formule.xlsx
+++ b/Corso Excel/Lezione 04 Formule.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E41F300B-79DD-460F-9B93-0A3A42A3A06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE50FEB-789C-42E2-86E1-1E382DB196F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiegazione1" sheetId="1" r:id="rId1"/>
-    <sheet name="Esercizio1" sheetId="3" r:id="rId2"/>
-    <sheet name="Esercizio2" sheetId="5" r:id="rId3"/>
-    <sheet name="Esercizio3" sheetId="6" r:id="rId4"/>
-    <sheet name="Esercizio4" sheetId="7" r:id="rId5"/>
-    <sheet name="Esercizio5" sheetId="8" r:id="rId6"/>
-    <sheet name="Esercizio6" sheetId="9" r:id="rId7"/>
-    <sheet name="Riferimenti" sheetId="2" r:id="rId8"/>
+    <sheet name="Spiegazione2" sheetId="10" r:id="rId2"/>
+    <sheet name="Esercizio1" sheetId="3" r:id="rId3"/>
+    <sheet name="Esercizio2" sheetId="5" r:id="rId4"/>
+    <sheet name="Esercizio3" sheetId="6" r:id="rId5"/>
+    <sheet name="Esercizio4" sheetId="7" r:id="rId6"/>
+    <sheet name="Esercizio5" sheetId="8" r:id="rId7"/>
+    <sheet name="Esercizio6" sheetId="9" r:id="rId8"/>
+    <sheet name="Esercizio7" sheetId="11" r:id="rId9"/>
+    <sheet name="Riferimenti" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>Creiamo una tabella con due colonne di numeri e proviamo a sommarli.</t>
   </si>
@@ -82,6 +84,21 @@
     <t>Numero_4</t>
   </si>
   <si>
+    <t>Posso scrivere una formula/funzione anche nella barra della formula.</t>
+  </si>
+  <si>
+    <t>Posso utilizzare le parentesi (ma solo le tonde!) per dare precedenza a certi calcoli, come nell'aritmetica studiata a scuola.</t>
+  </si>
+  <si>
+    <t>Se faccio un copia/incolla di una formula in un gruppo di dati, Excel cambia automaticamente i riferimenti delle celle in modo che la formula risulti corretta per la riga/colonna su cui ci troviamo.</t>
+  </si>
+  <si>
+    <t>Funziona anche con il trascinamento/autofill.</t>
+  </si>
+  <si>
+    <t>La visualizzazione delle formule, invece che del loro risultato, può essere attivata dal menu Formule -&gt; Mostra formule.</t>
+  </si>
+  <si>
     <t>Consegna:</t>
   </si>
   <si>
@@ -293,6 +310,45 @@
   </si>
   <si>
     <t>maggiori delle uscite oppure viceversa.</t>
+  </si>
+  <si>
+    <t>Consegna</t>
+  </si>
+  <si>
+    <t>Un libero professionista ha bisogno di aiuto nel gestire le entrate della sua partita IVA in regime forfettario.</t>
+  </si>
+  <si>
+    <t>Funzionamento della partita IVA:</t>
+  </si>
+  <si>
+    <t>Reddito = quanti soldi mi danno i miei clienti</t>
+  </si>
+  <si>
+    <t>Imponibile = una percentuale del reddito, la parte su cui vengono calcolate le tasse, viene calcolato in base a vari fattori.</t>
+  </si>
+  <si>
+    <t>Coefficiente di redditività = percentuale che serve per calcolare l'imponibile, dipende dal tipo di attività svolta.</t>
+  </si>
+  <si>
+    <t>Le tasse da pagare per questo regime sono due:</t>
+  </si>
+  <si>
+    <t>1. imposta sostitutiva, pari al 15% dell'imponibile</t>
+  </si>
+  <si>
+    <t>2. contributi previdenziali, pari al 26,07% dell'imponibile</t>
+  </si>
+  <si>
+    <t>Il netto guadagnato dal professionista è il reddito meno le tasse.</t>
+  </si>
+  <si>
+    <t>Ipotizza un foglio di calcolo per un libero professionista, indicando e calcolando nel modo che preferisci il reddito mensile</t>
+  </si>
+  <si>
+    <t>per ogni mese del 2024, calcolando poi l'ammontare delle tasse e infine calcolando il netto ricevuto dal professionista.</t>
+  </si>
+  <si>
+    <t>Utilizza un coefficiente di redditività a tua scelta compreso tra 67% e 78%.</t>
   </si>
   <si>
     <t>Corso online, video 09</t>
@@ -1146,7 +1202,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C353235F-F18E-4592-99DD-B17DD9139D91}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{13E8D1AA-5109-40AE-ACC6-7EF3680431BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB80635F-2FEE-41A8-83EE-895DCADF471D}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F1AD4-E3C6-4E2B-BD9B-24CDECEF5403}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1162,31 +1286,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5">
         <v>9.5203996463322866</v>
@@ -1197,7 +1321,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5">
         <v>9.9811575042048997</v>
@@ -1208,7 +1332,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5">
         <v>2.8510280629837155</v>
@@ -1217,13 +1341,13 @@
         <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>6.0373692644206507</v>
@@ -1232,18 +1356,18 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G8" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1251,12 +1375,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75A3D3B-57CD-4C54-851F-0F760B50589E}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1270,31 +1394,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>25000</v>
@@ -1305,7 +1429,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5">
         <v>12300</v>
@@ -1316,7 +1440,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>980</v>
@@ -1325,13 +1449,13 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>6500</v>
@@ -1342,12 +1466,12 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8100B-A784-436D-9E81-2C89D0CD7659}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1374,31 +1498,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>14000</v>
@@ -1409,7 +1533,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>9800</v>
@@ -1420,7 +1544,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5">
         <v>8700</v>
@@ -1429,13 +1553,13 @@
         <v>0.12</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5">
         <v>1350</v>
@@ -1449,12 +1573,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F143C26-EFE3-4A77-9CC9-3D49F35226F4}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,31 +1592,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5">
         <v>14000</v>
@@ -1503,7 +1627,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5">
         <v>9800</v>
@@ -1514,7 +1638,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5">
         <v>8700</v>
@@ -1523,13 +1647,13 @@
         <v>0.1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5">
         <v>1350</v>
@@ -1543,7 +1667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B5CEA9-BD47-43D2-9B08-E1571842806C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1562,12 +1686,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1576,18 +1700,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1598,7 +1722,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1610,7 +1734,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1622,7 +1746,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1634,7 +1758,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1646,7 +1770,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1657,7 +1781,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1671,12 +1795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C9B6EB-7C45-4ED4-8823-E579C8B96CE2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1691,17 +1815,17 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1710,19 +1834,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G5" s="8">
         <v>5600</v>
@@ -1730,7 +1854,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5">
         <v>1139</v>
@@ -1745,7 +1869,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5">
         <v>1305</v>
@@ -1760,7 +1884,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5">
         <v>1159</v>
@@ -1775,7 +1899,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5">
         <v>1137</v>
@@ -1790,7 +1914,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5">
         <v>1387</v>
@@ -1805,7 +1929,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5">
         <v>1249</v>
@@ -1820,7 +1944,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5">
         <v>1325</v>
@@ -1835,7 +1959,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5">
         <v>1193</v>
@@ -1850,7 +1974,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5">
         <v>1249</v>
@@ -1865,7 +1989,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5">
         <v>1269</v>
@@ -1880,7 +2004,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5">
         <v>1102</v>
@@ -1895,7 +2019,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5">
         <v>1305</v>
@@ -1910,14 +2034,14 @@
     </row>
     <row r="18" spans="1:7">
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="10">
         <f>D6+D7+D8+D9+D10+D11+D12+D13+D14+D15+D16+D17</f>
         <v>420</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8">
         <f>G5+D18</f>
@@ -1926,12 +2050,12 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1939,30 +2063,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C353235F-F18E-4592-99DD-B17DD9139D91}">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B162C4-33D6-4522-9E04-573EAE3883E1}">
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>85</v>
+      <c r="A1" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{13E8D1AA-5109-40AE-ACC6-7EF3680431BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Corso Excel/Lezione 04 Formule.xlsx
+++ b/Corso Excel/Lezione 04 Formule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE50FEB-789C-42E2-86E1-1E382DB196F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_5C5755BF84DCCEC36C3E1A399931F45B2A7E2811" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0536058A-0A71-4500-BEF0-E3F5D3B51C85}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spiegazione1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>Creiamo una tabella con due colonne di numeri e proviamo a sommarli.</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>fornitore_4</t>
+  </si>
+  <si>
+    <t>Attenzione all'uso delle percentuali!</t>
+  </si>
+  <si>
+    <t>Se voglio calcolare il 19% di qualcosa, devo fare</t>
+  </si>
+  <si>
+    <t>QUALCOSA * 0,19</t>
+  </si>
+  <si>
+    <t>Se voglio calcolare il prezzo finale dopo uno sconto, dovrò poi fare una sottrazione tra il prezzo iniziale e la percentuale che ho calcolato.</t>
+  </si>
+  <si>
+    <t>Analogamente, se voglio calcolare il 134% di qualcosa, devo fare</t>
+  </si>
+  <si>
+    <t>QUALCOSA * 1,34</t>
+  </si>
+  <si>
+    <t>Ricorda, il simbolo di percentuale ti sta dicendo di dividere il numero che vedi per cento.</t>
   </si>
   <si>
     <t>Prezzo iniziale</t>
@@ -1214,12 +1235,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC8100B-A784-436D-9E81-2C89D0CD7659}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1566,6 +1587,41 @@
       </c>
       <c r="C8" s="7">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1605,10 +1661,10 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>49</v>
@@ -1691,7 +1747,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1700,18 +1756,18 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1722,7 +1778,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -1734,7 +1790,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1746,7 +1802,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1758,7 +1814,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1770,7 +1826,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1781,7 +1837,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1820,12 +1876,12 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1834,19 +1890,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8">
         <v>5600</v>
@@ -1854,7 +1910,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5">
         <v>1139</v>
@@ -1869,7 +1925,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5">
         <v>1305</v>
@@ -1884,7 +1940,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5">
         <v>1159</v>
@@ -1899,7 +1955,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5">
         <v>1137</v>
@@ -1914,7 +1970,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B10" s="5">
         <v>1387</v>
@@ -1929,7 +1985,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5">
         <v>1249</v>
@@ -1944,7 +2000,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B12" s="5">
         <v>1325</v>
@@ -1959,7 +2015,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5">
         <v>1193</v>
@@ -1974,7 +2030,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B14" s="5">
         <v>1249</v>
@@ -1989,7 +2045,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5">
         <v>1269</v>
@@ -2004,7 +2060,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5">
         <v>1102</v>
@@ -2019,7 +2075,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5">
         <v>1305</v>
@@ -2041,7 +2097,7 @@
         <v>420</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G18" s="8">
         <f>G5+D18</f>
@@ -2050,12 +2106,12 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B162C4-33D6-4522-9E04-573EAE3883E1}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2075,67 +2131,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
